--- a/Vitae/EN/cv_data.xlsx
+++ b/Vitae/EN/cv_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Personales\CV\Vitae\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20C92DE-CD98-4E0F-9891-7CC2AF88E2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947D8F66-6502-4241-B67F-C67F815FC021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{290816F3-7D4B-4B8F-9C7B-5F4DF68E0B88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{290816F3-7D4B-4B8F-9C7B-5F4DF68E0B88}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>Degree</t>
   </si>
@@ -264,6 +264,27 @@
   </si>
   <si>
     <t>Languages</t>
+  </si>
+  <si>
+    <t>September 22 2022</t>
+  </si>
+  <si>
+    <t>Symposium of Communication and Chemicla Ecology, 9th European Congress of Apidology</t>
+  </si>
+  <si>
+    <t>Belgrade, Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member of  the Doctoral Researchers Council </t>
+  </si>
+  <si>
+    <t>Graduated School of Life Sciences, Julius-Maximilians-Universität Würzburg</t>
+  </si>
+  <si>
+    <t>January 2022 - Present</t>
+  </si>
+  <si>
+    <t>Presentation: Honeybee workers display task-related and subspecific patterns in their cuticular hydrocarbon profiles</t>
   </si>
 </sst>
 </file>
@@ -624,7 +645,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,10 +898,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3A69DC-CBB4-4DE7-92CD-AAB32432F059}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,64 +928,79 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -972,7 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D610571-213C-42C6-8D5B-D3B7441675BB}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1016,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32ECD84-8EE2-4DF3-8538-3A13A47EBD97}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,17 +1077,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
